--- a/DatosPrueba/Budget2019-compras.xlsx
+++ b/DatosPrueba/Budget2019-compras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pidatastrategy-my.sharepoint.com/personal/ibarrau_piconsulting_com_ar/Documents/PBI - Transferencia conocimiento/SQLBI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBARRAU\Documents\GitHub\PowerBi-code\DatosPrueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EDDF0013-21E5-4C6C-ADDA-E5653A35B505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F7C3F8D7-3B90-4129-A14C-C8D5F96D77D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A807D9-FD48-4289-80A0-7BCCB6209DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{536673F3-CB62-4F21-8917-4A7B67934060}"/>
   </bookViews>
@@ -44,42 +44,6 @@
     <t>Gerente</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
     <t>NOA</t>
   </si>
   <si>
@@ -117,6 +81,42 @@
   </si>
   <si>
     <t>Compras</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
   </si>
 </sst>
 </file>
@@ -184,40 +184,40 @@
     <tableColumn id="1" xr3:uid="{93CDE717-0C3E-4750-966F-863C40F1D118}" name="Region"/>
     <tableColumn id="2" xr3:uid="{34736291-7A6A-444B-BA2A-0259923E0688}" name="Area"/>
     <tableColumn id="3" xr3:uid="{3574630E-1292-47A6-97F7-F4D59AE0D2E3}" name="Gerente"/>
-    <tableColumn id="4" xr3:uid="{76A00148-FE61-411D-9203-F98038B44C04}" name="Enero">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{2731EC9C-070A-467E-9B06-EAF89D0EB45F}" name="Febrero">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{649FE385-0C51-4714-9830-254F40E8A8EE}" name="Marzo">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{4D381E6A-785A-4D39-855D-5AC5156E92D6}" name="Abril">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{56305839-A972-4F48-A3DF-EB49F8A9B699}" name="Mayo">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{1A340739-648A-4292-9F6A-6378E1F0FBEF}" name="Junio">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{165A75FB-3039-4661-8D1E-928716C189A0}" name="Julio">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{23DB4C71-2413-4164-90AA-B6165A497A7A}" name="Agosto">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{705D01FF-BF74-426E-95AF-9722620247AD}" name="Septiembre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{A5381A30-2DB9-474B-967B-BB3ABC15DFFB}" name="Octubre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{705030FF-5626-47C1-BC7F-DFE95F44B93D}" name="Noviembre">
-      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{3400B6C5-4372-4BE4-9A95-2743BF873747}" name="Diciembre">
+    <tableColumn id="4" xr3:uid="{76A00148-FE61-411D-9203-F98038B44C04}" name="2019-01">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2731EC9C-070A-467E-9B06-EAF89D0EB45F}" name="2019-02">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{649FE385-0C51-4714-9830-254F40E8A8EE}" name="2019-03">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4D381E6A-785A-4D39-855D-5AC5156E92D6}" name="2019-04">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{56305839-A972-4F48-A3DF-EB49F8A9B699}" name="2019-05">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{1A340739-648A-4292-9F6A-6378E1F0FBEF}" name="2019-06">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{165A75FB-3039-4661-8D1E-928716C189A0}" name="2019-07">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{23DB4C71-2413-4164-90AA-B6165A497A7A}" name="2019-08">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{705D01FF-BF74-426E-95AF-9722620247AD}" name="2019-09">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A5381A30-2DB9-474B-967B-BB3ABC15DFFB}" name="2019-10">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{705030FF-5626-47C1-BC7F-DFE95F44B93D}" name="2019-11">
+      <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{3400B6C5-4372-4BE4-9A95-2743BF873747}" name="2019-12">
       <calculatedColumnFormula>RANDBETWEEN(10000,100000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -525,7 +525,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,394 +547,394 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(10000,100000)</f>
-        <v>92002</v>
+        <v>42108</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:O7" ca="1" si="0">RANDBETWEEN(10000,100000)</f>
-        <v>21046</v>
+        <v>44915</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>55531</v>
+        <v>23592</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>44239</v>
+        <v>46121</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>38466</v>
+        <v>91860</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>19079</v>
+        <v>92093</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>33029</v>
+        <v>62691</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>13979</v>
+        <v>24626</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>35255</v>
+        <v>84675</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>67125</v>
+        <v>50597</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>49578</v>
+        <v>18164</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>77870</v>
+        <v>50027</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" ca="1" si="1">RANDBETWEEN(10000,100000)</f>
-        <v>52417</v>
+        <v>95168</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>28889</v>
+        <v>53959</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>28544</v>
+        <v>97678</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>89915</v>
+        <v>44312</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>24702</v>
+        <v>15512</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>69728</v>
+        <v>15301</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>10385</v>
+        <v>28047</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>32267</v>
+        <v>70598</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>90962</v>
+        <v>93796</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>91080</v>
+        <v>99100</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>75519</v>
+        <v>38742</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>32942</v>
+        <v>30948</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>53605</v>
+        <v>95099</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>87979</v>
+        <v>66025</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>57704</v>
+        <v>81088</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>18969</v>
+        <v>21167</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>83810</v>
+        <v>15577</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>39488</v>
+        <v>81431</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>89451</v>
+        <v>15175</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>56638</v>
+        <v>91076</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>21316</v>
+        <v>73220</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>76759</v>
+        <v>74662</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>28994</v>
+        <v>85058</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>71994</v>
+        <v>14854</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>31821</v>
+        <v>60362</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>16697</v>
+        <v>69713</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>11128</v>
+        <v>43026</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>29195</v>
+        <v>80122</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>28966</v>
+        <v>69043</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>88176</v>
+        <v>38505</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>91056</v>
+        <v>31453</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>28307</v>
+        <v>39738</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>54906</v>
+        <v>56802</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>24107</v>
+        <v>61890</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>75353</v>
+        <v>97554</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>39232</v>
+        <v>24055</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>92585</v>
+        <v>95932</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>89317</v>
+        <v>24714</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>89319</v>
+        <v>78753</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>11753</v>
+        <v>86824</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>20811</v>
+        <v>56541</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>38516</v>
+        <v>47163</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>15741</v>
+        <v>53789</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>85336</v>
+        <v>60989</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>11706</v>
+        <v>81220</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>89242</v>
+        <v>60345</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>57269</v>
+        <v>84802</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>85244</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>59900</v>
+        <v>95535</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>24391</v>
+        <v>52915</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>85210</v>
+        <v>23471</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>83608</v>
+        <v>13539</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>57406</v>
+        <v>54638</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>11849</v>
+        <v>11069</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>91846</v>
+        <v>18815</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>98061</v>
+        <v>39999</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>43571</v>
+        <v>78086</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>22330</v>
+        <v>80640</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>91421</v>
+        <v>61811</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>26157</v>
+        <v>54397</v>
       </c>
     </row>
   </sheetData>
